--- a/examples/metabolic_thermodynamics/template.xlsx
+++ b/examples/metabolic_thermodynamics/template.xlsx
@@ -820,10 +820,10 @@
     <t>'!!References'!A1</t>
   </si>
   <si>
-    <t>!!!ObjTables objTablesVersion='1.0.0' date='2020-06-02 16:11:42'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-06-02 16:11:42' objTablesVersion='1.0.0'</t>
+    <t>!!!ObjTables objTablesVersion='1.0.0' date='2020-06-03 17:57:20'</t>
+  </si>
+  <si>
+    <t>!!ObjTables type='TableOfContents' tableFormat='row' description='Table of contents' date='2020-06-03 17:57:20' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Table</t>
@@ -853,7 +853,7 @@
     <t>References</t>
   </si>
   <si>
-    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-06-02 16:11:42' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Schema' tableFormat='row' description='Table/model and column/attribute definitions' date='2020-06-03 17:57:20' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -1222,19 +1222,19 @@
     <t>Volume</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Compartment' name='Compartments' date='2020-06-02 16:11:42' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Compartment' name='Compartments' date='2020-06-03 17:57:20' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Id</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Metabolite' name='Metabolites' date='2020-06-02 16:11:42' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Metabolite' name='Metabolites' date='2020-06-03 17:57:20' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Formula</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reactions' date='2020-06-02 16:11:42' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Reaction' name='Reactions' date='2020-06-03 17:57:20' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Id (iAF1260 [Ref1])</t>
@@ -1354,7 +1354,7 @@
     <t>!ΔG uncertainty (Succinate, kJ * mol^-1)</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' tableFormat='row' class='Reference' name='References' date='2020-06-02 16:11:42' objTablesVersion='1.0.0'</t>
+    <t>!!ObjTables type='Data' tableFormat='row' class='Reference' name='References' date='2020-06-03 17:57:20' objTablesVersion='1.0.0'</t>
   </si>
   <si>
     <t>!Title</t>
